--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - Deflators.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - Deflators.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>National accounts - Deflators: Germany, years, use of the gross domestic product</t>
   </si>
@@ -119,6 +119,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>VGR-VWB-BIB</t>
   </si>
   <si>
@@ -224,7 +227,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:39:49</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:39:49</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -846,12 +849,20 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -988,6 +999,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -1151,107 +1166,110 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="85">
+      <c r="A5" t="s" s="87">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" t="s" s="87">
+      <c r="B5" s="88"/>
+      <c r="C5" t="s" s="89">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="88">
+      <c r="D5" t="s" s="90">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="89">
+      <c r="E5" t="s" s="91">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="90">
+      <c r="F5" t="s" s="92">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="91">
+      <c r="G5" t="s" s="93">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="92">
+      <c r="H5" t="s" s="94">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="93">
+      <c r="I5" t="s" s="95">
         <v>11</v>
       </c>
-      <c r="J5" t="s" s="94">
+      <c r="J5" t="s" s="96">
         <v>12</v>
       </c>
-      <c r="K5" t="s" s="95">
+      <c r="K5" t="s" s="97">
         <v>13</v>
       </c>
-      <c r="L5" t="s" s="96">
+      <c r="L5" t="s" s="98">
         <v>14</v>
       </c>
-      <c r="M5" t="s" s="97">
+      <c r="M5" t="s" s="99">
         <v>15</v>
       </c>
-      <c r="N5" t="s" s="98">
+      <c r="N5" t="s" s="100">
         <v>16</v>
       </c>
-      <c r="O5" t="s" s="99">
+      <c r="O5" t="s" s="101">
         <v>17</v>
       </c>
-      <c r="P5" t="s" s="100">
+      <c r="P5" t="s" s="102">
         <v>18</v>
       </c>
-      <c r="Q5" t="s" s="101">
+      <c r="Q5" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="R5" t="s" s="102">
+      <c r="R5" t="s" s="104">
         <v>20</v>
       </c>
-      <c r="S5" t="s" s="103">
+      <c r="S5" t="s" s="105">
         <v>21</v>
       </c>
-      <c r="T5" t="s" s="104">
+      <c r="T5" t="s" s="106">
         <v>22</v>
       </c>
-      <c r="U5" t="s" s="105">
+      <c r="U5" t="s" s="107">
         <v>23</v>
       </c>
-      <c r="V5" t="s" s="106">
+      <c r="V5" t="s" s="108">
         <v>24</v>
       </c>
-      <c r="W5" t="s" s="107">
+      <c r="W5" t="s" s="109">
         <v>25</v>
       </c>
-      <c r="X5" t="s" s="108">
+      <c r="X5" t="s" s="110">
         <v>26</v>
       </c>
-      <c r="Y5" t="s" s="109">
+      <c r="Y5" t="s" s="111">
         <v>27</v>
       </c>
-      <c r="Z5" t="s" s="110">
+      <c r="Z5" t="s" s="112">
         <v>28</v>
       </c>
-      <c r="AA5" t="s" s="111">
+      <c r="AA5" t="s" s="113">
         <v>29</v>
       </c>
-      <c r="AB5" t="s" s="112">
+      <c r="AB5" t="s" s="114">
         <v>30</v>
       </c>
-      <c r="AC5" t="s" s="113">
+      <c r="AC5" t="s" s="115">
         <v>31</v>
       </c>
-      <c r="AD5" t="s" s="114">
+      <c r="AD5" t="s" s="116">
         <v>32</v>
       </c>
-      <c r="AE5" t="s" s="115">
+      <c r="AE5" t="s" s="117">
         <v>33</v>
       </c>
-      <c r="AF5" t="s" s="116">
+      <c r="AF5" t="s" s="118">
         <v>34</v>
+      </c>
+      <c r="AG5" t="s" s="119">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n" s="10">
         <v>71.47</v>
@@ -1342,14 +1360,17 @@
       </c>
       <c r="AF6" t="n" s="10">
         <v>108.75</v>
+      </c>
+      <c r="AG6" t="n" s="10">
+        <v>112.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>72.22</v>
@@ -1440,14 +1461,17 @@
       </c>
       <c r="AF7" t="n" s="10">
         <v>107.93</v>
+      </c>
+      <c r="AG7" t="n" s="10">
+        <v>112.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>71.81</v>
@@ -1538,14 +1562,17 @@
       </c>
       <c r="AF8" t="n" s="10">
         <v>107.31</v>
+      </c>
+      <c r="AG8" t="n" s="10">
+        <v>110.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>70.6</v>
@@ -1636,14 +1663,17 @@
       </c>
       <c r="AF9" t="n" s="10">
         <v>105.75</v>
+      </c>
+      <c r="AG9" t="n" s="10">
+        <v>109.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>75.66</v>
@@ -1734,14 +1764,17 @@
       </c>
       <c r="AF10" t="n" s="10">
         <v>111.22</v>
+      </c>
+      <c r="AG10" t="n" s="10">
+        <v>114.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>73.54</v>
@@ -1832,14 +1865,17 @@
       </c>
       <c r="AF11" t="n" s="10">
         <v>109.98</v>
+      </c>
+      <c r="AG11" t="n" s="10">
+        <v>117.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>80.64</v>
@@ -1930,14 +1966,17 @@
       </c>
       <c r="AF12" t="n" s="10">
         <v>110.75</v>
+      </c>
+      <c r="AG12" t="n" s="10">
+        <v>116.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>107.94</v>
@@ -2028,14 +2067,17 @@
       </c>
       <c r="AF13" t="n" s="10">
         <v>104.33</v>
+      </c>
+      <c r="AG13" t="n" s="10">
+        <v>106.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>66.21</v>
@@ -2126,14 +2168,17 @@
       </c>
       <c r="AF14" t="n" s="10">
         <v>117.11</v>
+      </c>
+      <c r="AG14" t="n" s="10">
+        <v>126.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>76.4</v>
@@ -2224,14 +2269,17 @@
       </c>
       <c r="AF15" t="n" s="10">
         <v>106.57</v>
+      </c>
+      <c r="AG15" t="n" s="10">
+        <v>107.82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>93.33</v>
@@ -2322,14 +2370,17 @@
       </c>
       <c r="AF16" t="n" s="10">
         <v>102.86</v>
+      </c>
+      <c r="AG16" t="n" s="10">
+        <v>100.46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="n" s="10">
         <v>88.75</v>
@@ -2420,14 +2471,17 @@
       </c>
       <c r="AF17" t="n" s="10">
         <v>102.14</v>
+      </c>
+      <c r="AG17" t="n" s="10">
+        <v>107.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>90.73</v>
@@ -2518,14 +2572,17 @@
       </c>
       <c r="AF18" t="n" s="10">
         <v>100.97</v>
+      </c>
+      <c r="AG18" t="n" s="10">
+        <v>105.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>77.79</v>
@@ -2616,14 +2673,17 @@
       </c>
       <c r="AF19" t="n" s="10">
         <v>107.49</v>
+      </c>
+      <c r="AG19" t="n" s="10">
+        <v>117.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="n" s="10">
         <v>95.09</v>
@@ -2714,14 +2774,17 @@
       </c>
       <c r="AF20" t="n" s="10">
         <v>99.3</v>
+      </c>
+      <c r="AG20" t="n" s="10">
+        <v>107.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="n" s="10">
         <v>101.61</v>
@@ -2812,14 +2875,17 @@
       </c>
       <c r="AF21" t="n" s="10">
         <v>97.45</v>
+      </c>
+      <c r="AG21" t="n" s="10">
+        <v>106.36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="n" s="10">
         <v>76.08</v>
@@ -2910,29 +2976,32 @@
       </c>
       <c r="AF22" t="n" s="10">
         <v>106.24</v>
+      </c>
+      <c r="AG22" t="n" s="10">
+        <v>110.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="12">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A4:AG4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:39:52&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:39:50&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>